--- a/biology/Mycologie/Lentinellus_cochleatus/Lentinellus_cochleatus.xlsx
+++ b/biology/Mycologie/Lentinellus_cochleatus/Lentinellus_cochleatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lentinellus cochleatus, le lentin en colimaçon, est une espèce de champignons basidiomycètes comestibles, de la famille des Auriscalpiaceae.
 </t>
@@ -511,11 +523,48 @@
           <t>Nom binominal accepté</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Lentinellus cochleatus (Pers.) P. Karst. 1879[3]
-Synonymes
-Agaricus cochleatus Pers. 1793 (synonyme)
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lentinellus cochleatus (Pers.) P. Karst. 1879
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Lentinellus_cochleatus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lentinellus_cochleatus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Nom binominal accepté</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Agaricus cochleatus Pers. 1793 (synonyme)
 Agaricus cochleatus Secr. 1833 (synonyme)
 Agaricus cochleatus var. cochleatus Pers. 1793 (synonyme)
 Agaricus cochleatus var. cornucopioides (Bolton) Pers. 1801 (synonyme)
@@ -541,37 +590,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Lentinellus_cochleatus</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Mycologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Lentinellus_cochleatus</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Taxinomie</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme beaucoup d'autres espèces, ce champignon a connu une taxonomie très changeante (pas moins d'une vingtaine de binômes recensés, dans 8 genres différents) pour se retrouver aujourd'hui classifié très loin des lentins du genre *''Lentinus. Alors que ces derniers sont passés des Agaricales aux Polyporales, des parentés ont été découvertes entre le lentin en colimaçon et les russules, aussi le genre Lentinellus fait aujourd'hui partie des Russulales.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
@@ -593,12 +611,47 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme beaucoup d'autres espèces, ce champignon a connu une taxonomie très changeante (pas moins d'une vingtaine de binômes recensés, dans 8 genres différents) pour se retrouver aujourd'hui classifié très loin des lentins du genre *''Lentinus. Alors que ces derniers sont passés des Agaricales aux Polyporales, des parentés ont été découvertes entre le lentin en colimaçon et les russules, aussi le genre Lentinellus fait aujourd'hui partie des Russulales.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lentinellus_cochleatus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lentinellus_cochleatus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hyménophore : chapeau de 3 à 7 cm,  très irrégulier, pruineux, cornucopié, en coquille puis se fendant dans sa longueur et s'enroulant en cornet, d'où le nom de l'espèce[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyménophore : chapeau de 3 à 7 cm,  très irrégulier, pruineux, cornucopié, en coquille puis se fendant dans sa longueur et s'enroulant en cornet, d'où le nom de l'espèce.
 Cuticule : brun-roux,
 Chair : mince, blanc-roux
 Marge : mince, lobée et dentelée.
@@ -611,37 +664,6 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Lentinellus_cochleatus</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Mycologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Lentinellus_cochleatus</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Écologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le lentin en colimaçon vient d'août à novembre dans les régions tempérées, en touffes denses au pied des feuillus dépérissants ou morts, notamment des hêtres, mais aussi parfois au voisinage de conifères.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
@@ -663,12 +685,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Comestibilité</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un champignon comestible, en mélange et en quantité limitée, du fait de son fort goût d'anis.
+          <t>Écologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le lentin en colimaçon vient d'août à novembre dans les régions tempérées, en touffes denses au pied des feuillus dépérissants ou morts, notamment des hêtres, mais aussi parfois au voisinage de conifères.
 </t>
         </is>
       </c>
@@ -694,12 +718,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Espèces proches et confusions possibles</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les seules espèces proches sont d'autres Lentinellus. Lentinellus cochleatus possède également une variété inolens, c'est-à-dire inodore, mais en règle générale son profil bien particulier et sa forte odeur d'anis rendent toute confusion impossible.
+          <t>Comestibilité</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un champignon comestible, en mélange et en quantité limitée, du fait de son fort goût d'anis.
 </t>
         </is>
       </c>
@@ -725,12 +751,47 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Espèces proches et confusions possibles</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les seules espèces proches sont d'autres Lentinellus. Lentinellus cochleatus possède également une variété inolens, c'est-à-dire inodore, mais en règle générale son profil bien particulier et sa forte odeur d'anis rendent toute confusion impossible.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Lentinellus_cochleatus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lentinellus_cochleatus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (3 novembre 2018)[2] :
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (3 novembre 2018) :
 variété Lentinellus cochleatus var. inolens (Konrad &amp; Maubl.) Kühner &amp; Romagn.</t>
         </is>
       </c>
